--- a/data/trans_orig/P46-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P46-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACB2CF16-2715-4C2F-9C1F-3E7FB5CFA767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5367542D-282E-4D6F-8265-06B8D6E800CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9FBD4AC7-747E-4BE3-8F49-64BAD56DAD66}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D4CBCAB-22D4-4D6B-8576-DBC72ADD93EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="642">
   <si>
     <t>Población según la opinión que tienen si tomasen el sol sin ninguna protección en 2007 (Tasa respuesta: 97,47%)</t>
   </si>
@@ -95,7 +95,7 @@
     <t>4,45%</t>
   </si>
   <si>
-    <t>3,24%</t>
+    <t>3,29%</t>
   </si>
   <si>
     <t>6,06%</t>
@@ -104,1798 +104,1816 @@
     <t>1,4%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>Se quemaría raramente y se pondría muy moreno</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>Se quemaría mínimamente y se pondría moreno siempre</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>Se quemaría moderadamente y se pondría moreno gradualmente</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>Se quemaría fácilmente y se pondría muy poco moreno</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>Se quemaría siempre y no se pondría moreno nunca</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la opinión que tienen si tomasen el sol sin ninguna protección en 2012 (Tasa respuesta: 98,05%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>Se quemaría raramente y se pondría muy moreno</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>Se quemaría mínimamente y se pondría moreno siempre</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
   </si>
   <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>Se quemaría moderadamente y se pondría moreno gradualmente</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>Población según la opinión que tienen si tomasen el sol sin ninguna protección en 2015 (Tasa respuesta: 99,01%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
   </si>
   <si>
     <t>28,4%</t>
   </si>
   <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>Se quemaría fácilmente y se pondría muy poco moreno</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>Se quemaría siempre y no se pondría moreno nunca</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la opinión que tienen si tomasen el sol sin ninguna protección en 2012 (Tasa respuesta: 98,05%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>Población según la opinión que tienen si tomasen el sol sin ninguna protección en 2015 (Tasa respuesta: 99,01%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
   </si>
   <si>
     <t>30,83%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
+    <t>32,5%</t>
   </si>
   <si>
     <t>31,25%</t>
   </si>
   <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
   </si>
   <si>
     <t>20,59%</t>
   </si>
   <si>
-    <t>19,12%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
   </si>
   <si>
     <t>27,37%</t>
   </si>
   <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
   </si>
   <si>
     <t>15,99%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
   </si>
   <si>
     <t>23,4%</t>
   </si>
   <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
   </si>
   <si>
     <t>Población según la opinión que tienen si tomasen el sol sin ninguna protección en 2023 (Tasa respuesta: 100,0%)</t>
@@ -2358,7 +2376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C151674B-1037-4E17-B8C2-67DE0664A13D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804D23AD-0C59-4AE3-BE91-51CA0B104B55}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2683,7 +2701,7 @@
         <v>309</v>
       </c>
       <c r="D8" s="7">
-        <v>305258</v>
+        <v>305257</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>47</v>
@@ -2836,7 +2854,7 @@
         <v>995</v>
       </c>
       <c r="D11" s="7">
-        <v>990454</v>
+        <v>990453</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>76</v>
@@ -3009,13 +3027,13 @@
         <v>89326</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>230</v>
@@ -3024,13 +3042,13 @@
         <v>236743</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,13 +3063,13 @@
         <v>280495</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H15" s="7">
         <v>130</v>
@@ -3060,13 +3078,13 @@
         <v>138202</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M15" s="7">
         <v>404</v>
@@ -3075,13 +3093,13 @@
         <v>418697</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3114,13 @@
         <v>595802</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>567</v>
@@ -3111,13 +3129,13 @@
         <v>571357</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>1150</v>
@@ -3126,13 +3144,13 @@
         <v>1167158</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3165,13 @@
         <v>371004</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>449</v>
@@ -3162,13 +3180,13 @@
         <v>457465</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>809</v>
@@ -3177,13 +3195,13 @@
         <v>828469</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3216,13 @@
         <v>212657</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>286</v>
@@ -3213,13 +3231,13 @@
         <v>294401</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>488</v>
@@ -3228,13 +3246,13 @@
         <v>507058</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,7 +3308,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3308,7 +3326,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3323,7 +3341,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3338,7 +3356,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3371,13 @@
         <v>2726</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3374,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -3383,13 +3401,13 @@
         <v>2726</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3422,13 @@
         <v>25941</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3422,10 +3440,10 @@
         <v>84</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -3434,13 +3452,13 @@
         <v>31045</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3473,13 @@
         <v>51943</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -3470,13 +3488,13 @@
         <v>30981</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M23" s="7">
         <v>76</v>
@@ -3485,13 +3503,13 @@
         <v>82925</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,13 +3524,13 @@
         <v>220232</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>164</v>
@@ -3521,13 +3539,13 @@
         <v>170002</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>375</v>
@@ -3536,13 +3554,13 @@
         <v>390235</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3575,13 @@
         <v>127477</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>139</v>
@@ -3572,13 +3590,13 @@
         <v>147095</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>264</v>
@@ -3587,13 +3605,13 @@
         <v>274571</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3626,13 @@
         <v>107748</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>109</v>
@@ -3623,13 +3641,13 @@
         <v>115060</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>208</v>
@@ -3638,13 +3656,13 @@
         <v>222808</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,7 +3766,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3781,13 @@
         <v>91665</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
@@ -3778,13 +3796,13 @@
         <v>34975</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>118</v>
@@ -3793,13 +3811,13 @@
         <v>126641</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3832,13 @@
         <v>250465</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>127</v>
@@ -3829,13 +3847,13 @@
         <v>132347</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>371</v>
@@ -3844,13 +3862,13 @@
         <v>382812</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3883,13 @@
         <v>486703</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>214</v>
@@ -3880,13 +3898,13 @@
         <v>226513</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>688</v>
@@ -3895,13 +3913,13 @@
         <v>713216</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,13 +3934,13 @@
         <v>1121291</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H32" s="7">
         <v>1126</v>
@@ -3931,13 +3949,13 @@
         <v>1135650</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M32" s="7">
         <v>2229</v>
@@ -3946,13 +3964,13 @@
         <v>2256941</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3985,13 @@
         <v>709838</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H33" s="7">
         <v>976</v>
@@ -3982,13 +4000,13 @@
         <v>998043</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M33" s="7">
         <v>1677</v>
@@ -3997,13 +4015,13 @@
         <v>1707881</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4036,13 @@
         <v>518784</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>758</v>
@@ -4033,13 +4051,13 @@
         <v>785640</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M34" s="7">
         <v>1263</v>
@@ -4048,13 +4066,13 @@
         <v>1304424</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,7 +4128,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4129,7 +4147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F239C9F3-5F77-4041-BB4F-FF856455AF10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDC7484-E2B4-49EA-90AC-28DF7F9E5FFA}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4146,7 +4164,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4259,7 +4277,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4274,7 +4292,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4304,13 +4322,13 @@
         <v>69562</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>40</v>
@@ -4319,10 +4337,10 @@
         <v>41409</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>247</v>
@@ -4442,7 +4460,7 @@
         <v>267</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,10 +4508,10 @@
         <v>274</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,13 +4526,13 @@
         <v>179100</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>343</v>
@@ -4541,10 +4559,10 @@
         <v>282</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,10 +4577,10 @@
         <v>205935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>285</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>286</v>
@@ -4729,13 +4747,13 @@
         <v>56373</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>298</v>
       </c>
       <c r="M13" s="7">
         <v>139</v>
@@ -4744,13 +4762,13 @@
         <v>147440</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4783,13 @@
         <v>229326</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
@@ -4780,13 +4798,13 @@
         <v>145370</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>148</v>
+        <v>307</v>
       </c>
       <c r="M14" s="7">
         <v>351</v>
@@ -4795,13 +4813,13 @@
         <v>374696</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4834,13 @@
         <v>313798</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>309</v>
+        <v>133</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H15" s="7">
         <v>174</v>
@@ -4831,13 +4849,13 @@
         <v>192749</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M15" s="7">
         <v>464</v>
@@ -4846,13 +4864,13 @@
         <v>506547</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4885,13 @@
         <v>567030</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H16" s="7">
         <v>412</v>
@@ -4882,13 +4900,13 @@
         <v>435165</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>955</v>
@@ -4897,13 +4915,13 @@
         <v>1002195</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,13 +4936,13 @@
         <v>395108</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H17" s="7">
         <v>429</v>
@@ -4933,13 +4951,13 @@
         <v>461911</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M17" s="7">
         <v>802</v>
@@ -4948,13 +4966,13 @@
         <v>857019</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +4987,13 @@
         <v>346918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H18" s="7">
         <v>408</v>
@@ -4984,13 +5002,13 @@
         <v>442567</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M18" s="7">
         <v>739</v>
@@ -4999,13 +5017,13 @@
         <v>789485</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,7 +5079,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5079,7 +5097,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5094,7 +5112,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5109,7 +5127,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,10 +5142,10 @@
         <v>12652</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>347</v>
+        <v>191</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>348</v>
@@ -5154,13 +5172,13 @@
         <v>19865</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>24</v>
+        <v>352</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>353</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5193,13 @@
         <v>30886</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>354</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -5190,13 +5208,13 @@
         <v>30590</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -5205,10 +5223,10 @@
         <v>61476</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>360</v>
+        <v>248</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>361</v>
@@ -5280,10 +5298,10 @@
         <v>371</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>173</v>
+        <v>372</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H24" s="7">
         <v>110</v>
@@ -5292,13 +5310,13 @@
         <v>117969</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M24" s="7">
         <v>259</v>
@@ -5307,13 +5325,13 @@
         <v>280755</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,10 +5349,10 @@
         <v>282</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H25" s="7">
         <v>105</v>
@@ -5343,13 +5361,13 @@
         <v>117754</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>50</v>
+        <v>384</v>
       </c>
       <c r="M25" s="7">
         <v>210</v>
@@ -5358,13 +5376,13 @@
         <v>233647</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>385</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,13 +5397,13 @@
         <v>90278</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>386</v>
+        <v>58</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>316</v>
+        <v>387</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H26" s="7">
         <v>110</v>
@@ -5394,13 +5412,13 @@
         <v>121287</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M26" s="7">
         <v>190</v>
@@ -5409,13 +5427,13 @@
         <v>211565</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>270</v>
+        <v>392</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,7 +5537,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5552,13 @@
         <v>173281</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>102</v>
@@ -5549,13 +5567,13 @@
         <v>104994</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M29" s="7">
         <v>263</v>
@@ -5564,13 +5582,13 @@
         <v>278276</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,13 +5603,13 @@
         <v>410865</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H30" s="7">
         <v>263</v>
@@ -5600,13 +5618,13 @@
         <v>283063</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>44</v>
+        <v>406</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="M30" s="7">
         <v>645</v>
@@ -5615,13 +5633,13 @@
         <v>693928</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,10 +5657,10 @@
         <v>251</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H31" s="7">
         <v>341</v>
@@ -5651,13 +5669,13 @@
         <v>376210</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M31" s="7">
         <v>839</v>
@@ -5666,13 +5684,13 @@
         <v>910241</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>303</v>
+        <v>417</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5705,13 @@
         <v>919945</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H32" s="7">
         <v>773</v>
@@ -5702,13 +5720,13 @@
         <v>824832</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M32" s="7">
         <v>1640</v>
@@ -5717,13 +5735,13 @@
         <v>1744777</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,13 +5756,13 @@
         <v>690101</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H33" s="7">
         <v>877</v>
@@ -5753,13 +5771,13 @@
         <v>941201</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>321</v>
+        <v>431</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>323</v>
+        <v>432</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>427</v>
+        <v>181</v>
       </c>
       <c r="M33" s="7">
         <v>1526</v>
@@ -5768,13 +5786,13 @@
         <v>1631302</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,13 +5807,13 @@
         <v>643131</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>432</v>
+        <v>68</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H34" s="7">
         <v>856</v>
@@ -5804,13 +5822,13 @@
         <v>934946</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M34" s="7">
         <v>1456</v>
@@ -5819,13 +5837,13 @@
         <v>1578077</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>291</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,7 +5885,7 @@
         <v>6369</v>
       </c>
       <c r="N35" s="7">
-        <v>6836602</v>
+        <v>6836601</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>76</v>
@@ -5881,7 +5899,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -5900,7 +5918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A4CDE4-E331-4801-9A6A-BB202650D1A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FCCC4C-CFDF-4DA3-80A1-7B7C4C7E808B}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5917,7 +5935,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6030,7 +6048,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6045,7 +6063,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6075,13 +6093,13 @@
         <v>29218</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>296</v>
+        <v>448</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -6090,13 +6108,13 @@
         <v>25684</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -6105,13 +6123,13 @@
         <v>54901</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>444</v>
+        <v>144</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6144,13 @@
         <v>82294</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>448</v>
+        <v>362</v>
       </c>
       <c r="H6" s="7">
         <v>47</v>
@@ -6141,13 +6159,13 @@
         <v>49467</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="M6" s="7">
         <v>130</v>
@@ -6156,13 +6174,13 @@
         <v>131760</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>453</v>
+        <v>354</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6195,13 @@
         <v>156337</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>456</v>
+        <v>272</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="H7" s="7">
         <v>95</v>
@@ -6192,13 +6210,13 @@
         <v>104239</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="M7" s="7">
         <v>256</v>
@@ -6207,13 +6225,13 @@
         <v>260577</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>403</v>
+        <v>467</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6246,13 @@
         <v>197899</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="H8" s="7">
         <v>245</v>
@@ -6243,13 +6261,13 @@
         <v>268928</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="M8" s="7">
         <v>443</v>
@@ -6258,13 +6276,13 @@
         <v>466827</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6297,13 @@
         <v>141810</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>220</v>
+        <v>480</v>
       </c>
       <c r="H9" s="7">
         <v>246</v>
@@ -6294,13 +6312,13 @@
         <v>277875</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="M9" s="7">
         <v>390</v>
@@ -6309,13 +6327,13 @@
         <v>419685</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6348,13 @@
         <v>130213</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>230</v>
+        <v>488</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="H10" s="7">
         <v>221</v>
@@ -6345,13 +6363,13 @@
         <v>252024</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>330</v>
+        <v>492</v>
       </c>
       <c r="M10" s="7">
         <v>352</v>
@@ -6360,13 +6378,13 @@
         <v>382238</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>233</v>
+        <v>493</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>483</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,7 +6488,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6503,13 @@
         <v>110455</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>487</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -6500,13 +6518,13 @@
         <v>38896</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="M13" s="7">
         <v>139</v>
@@ -6515,13 +6533,13 @@
         <v>149351</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>492</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>500</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>493</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,10 +6557,10 @@
         <v>263</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>494</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="H14" s="7">
         <v>99</v>
@@ -6551,13 +6569,13 @@
         <v>104834</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>497</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="M14" s="7">
         <v>279</v>
@@ -6566,13 +6584,13 @@
         <v>300655</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6605,13 @@
         <v>375246</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>503</v>
+        <v>342</v>
       </c>
       <c r="H15" s="7">
         <v>194</v>
@@ -6602,13 +6620,13 @@
         <v>201039</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>195</v>
+        <v>509</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>257</v>
+        <v>510</v>
       </c>
       <c r="M15" s="7">
         <v>549</v>
@@ -6617,13 +6635,13 @@
         <v>576285</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,13 +6656,13 @@
         <v>653953</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="H16" s="7">
         <v>645</v>
@@ -6653,13 +6671,13 @@
         <v>668207</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="M16" s="7">
         <v>1269</v>
@@ -6668,13 +6686,13 @@
         <v>1322161</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>55</v>
+        <v>520</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>121</v>
+        <v>521</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,13 +6707,13 @@
         <v>414762</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H17" s="7">
         <v>517</v>
@@ -6704,13 +6722,13 @@
         <v>535832</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>380</v>
+        <v>528</v>
       </c>
       <c r="M17" s="7">
         <v>913</v>
@@ -6722,10 +6740,10 @@
         <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,13 +6758,13 @@
         <v>302846</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>521</v>
+        <v>488</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="H18" s="7">
         <v>406</v>
@@ -6755,13 +6773,13 @@
         <v>430788</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="M18" s="7">
         <v>683</v>
@@ -6770,13 +6788,13 @@
         <v>733634</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>528</v>
+        <v>468</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,7 +6850,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6850,7 +6868,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6865,7 +6883,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6895,13 +6913,13 @@
         <v>21895</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>297</v>
+        <v>452</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>206</v>
+        <v>539</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -6910,13 +6928,13 @@
         <v>13066</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>533</v>
+        <v>353</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>398</v>
+        <v>541</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -6925,13 +6943,13 @@
         <v>34961</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>444</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>534</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>394</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +6964,13 @@
         <v>39734</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>536</v>
+        <v>456</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -6961,13 +6979,13 @@
         <v>37535</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -6976,13 +6994,13 @@
         <v>77268</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>454</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +7015,13 @@
         <v>76296</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>550</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>543</v>
+        <v>501</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="H23" s="7">
         <v>55</v>
@@ -7012,13 +7030,13 @@
         <v>55314</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>27</v>
+        <v>553</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="M23" s="7">
         <v>124</v>
@@ -7027,13 +7045,13 @@
         <v>131610</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>209</v>
+        <v>308</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>548</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,13 +7066,13 @@
         <v>176401</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="H24" s="7">
         <v>151</v>
@@ -7063,13 +7081,13 @@
         <v>158057</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="M24" s="7">
         <v>317</v>
@@ -7078,13 +7096,13 @@
         <v>334458</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,13 +7117,13 @@
         <v>130187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>558</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="H25" s="7">
         <v>143</v>
@@ -7114,13 +7132,13 @@
         <v>145784</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="M25" s="7">
         <v>263</v>
@@ -7129,13 +7147,13 @@
         <v>275970</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,13 +7168,13 @@
         <v>100255</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>574</v>
       </c>
       <c r="H26" s="7">
         <v>129</v>
@@ -7165,13 +7183,13 @@
         <v>137561</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="M26" s="7">
         <v>219</v>
@@ -7180,13 +7198,13 @@
         <v>237816</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>573</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7290,7 +7308,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7305,13 +7323,13 @@
         <v>161568</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>42</v>
+        <v>581</v>
       </c>
       <c r="H29" s="7">
         <v>74</v>
@@ -7320,13 +7338,13 @@
         <v>77646</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>139</v>
+        <v>582</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="M29" s="7">
         <v>221</v>
@@ -7335,13 +7353,13 @@
         <v>239213</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>440</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7356,13 +7374,13 @@
         <v>317849</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>361</v>
+        <v>588</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="H30" s="7">
         <v>180</v>
@@ -7371,13 +7389,13 @@
         <v>191835</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="M30" s="7">
         <v>478</v>
@@ -7386,13 +7404,13 @@
         <v>509684</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,13 +7425,13 @@
         <v>607880</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="H31" s="7">
         <v>344</v>
@@ -7422,13 +7440,13 @@
         <v>360592</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="M31" s="7">
         <v>929</v>
@@ -7437,13 +7455,13 @@
         <v>968472</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7476,13 @@
         <v>1028253</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>562</v>
+        <v>605</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>596</v>
+        <v>528</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="H32" s="7">
         <v>1041</v>
@@ -7473,13 +7491,13 @@
         <v>1095192</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="M32" s="7">
         <v>2029</v>
@@ -7488,13 +7506,13 @@
         <v>2123445</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,13 +7527,13 @@
         <v>686759</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>437</v>
+        <v>615</v>
       </c>
       <c r="H33" s="7">
         <v>906</v>
@@ -7524,13 +7542,13 @@
         <v>959491</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>607</v>
+        <v>290</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="M33" s="7">
         <v>1566</v>
@@ -7539,13 +7557,13 @@
         <v>1646249</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>609</v>
+        <v>443</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>553</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,13 +7578,13 @@
         <v>533314</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="H34" s="7">
         <v>756</v>
@@ -7575,13 +7593,13 @@
         <v>820373</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>332</v>
+        <v>430</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>615</v>
+        <v>334</v>
       </c>
       <c r="M34" s="7">
         <v>1254</v>
@@ -7590,13 +7608,13 @@
         <v>1353687</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>616</v>
+        <v>533</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7652,7 +7670,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -7671,7 +7689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4F96BB-4A83-4C3A-A3C0-9923592F793B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3085889E-007B-4297-B898-75160604D4C2}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7688,7 +7706,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7795,10 +7813,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>76</v>
@@ -7810,10 +7828,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>76</v>
@@ -7825,10 +7843,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>76</v>
@@ -7852,7 +7870,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7903,7 +7921,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7954,7 +7972,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8005,7 +8023,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8056,7 +8074,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8107,7 +8125,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8205,10 +8223,10 @@
         <v>2162022</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>76</v>
@@ -8217,13 +8235,13 @@
         <v>2921</v>
       </c>
       <c r="I12" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>76</v>
@@ -8235,10 +8253,10 @@
         <v>4411543</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>76</v>
@@ -8277,7 +8295,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -8292,7 +8310,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8328,7 +8346,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8343,7 +8361,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8379,7 +8397,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -8394,7 +8412,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8430,7 +8448,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8445,7 +8463,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8481,7 +8499,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8496,7 +8514,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8532,7 +8550,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8547,7 +8565,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8574,7 +8592,7 @@
         <v>2921</v>
       </c>
       <c r="I19" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>76</v>
@@ -8603,7 +8621,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8615,10 +8633,10 @@
         <v>673039</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>76</v>
@@ -8630,10 +8648,10 @@
         <v>713886</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>76</v>
@@ -8645,10 +8663,10 @@
         <v>1386926</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>76</v>
@@ -8672,7 +8690,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8702,7 +8720,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8723,7 +8741,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8753,7 +8771,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8774,7 +8792,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -8804,7 +8822,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8825,7 +8843,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8855,7 +8873,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8876,7 +8894,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8906,7 +8924,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8927,7 +8945,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8957,7 +8975,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9022,13 +9040,13 @@
         <v>3364</v>
       </c>
       <c r="D28" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>76</v>
@@ -9040,10 +9058,10 @@
         <v>3799360</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>76</v>
@@ -9052,13 +9070,13 @@
         <v>8716</v>
       </c>
       <c r="N28" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>76</v>
@@ -9097,7 +9115,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -9112,7 +9130,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9148,7 +9166,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -9163,7 +9181,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9199,7 +9217,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -9214,7 +9232,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9250,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9265,7 +9283,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9301,7 +9319,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9316,7 +9334,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9352,7 +9370,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -9367,7 +9385,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9379,7 +9397,7 @@
         <v>3364</v>
       </c>
       <c r="D35" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>76</v>
@@ -9409,7 +9427,7 @@
         <v>8716</v>
       </c>
       <c r="N35" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>76</v>
@@ -9423,7 +9441,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P46-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P46-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5367542D-282E-4D6F-8265-06B8D6E800CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{074D7147-3F47-47EA-B2C2-160CDA30A08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D4CBCAB-22D4-4D6B-8576-DBC72ADD93EC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D462824-A4B0-4833-85F8-8F31279DA874}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="645">
   <si>
     <t>Población según la opinión que tienen si tomasen el sol sin ninguna protección en 2007 (Tasa respuesta: 97,47%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>4,45%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
   </si>
   <si>
     <t>Se quemaría raramente y se pondría muy moreno</t>
@@ -125,25 +125,25 @@
     <t>7,78%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>4,2%</t>
+    <t>4,18%</t>
   </si>
   <si>
     <t>6,01%</t>
@@ -155,25 +155,25 @@
     <t>15,58%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>8,09%</t>
+    <t>8,19%</t>
   </si>
   <si>
     <t>10,57%</t>
@@ -185,28 +185,28 @@
     <t>30,82%</t>
   </si>
   <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
   </si>
   <si>
     <t>30,87%</t>
   </si>
   <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
   </si>
   <si>
     <t>30,85%</t>
   </si>
   <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
   </si>
   <si>
     <t>Se quemaría fácilmente y se pondría muy poco moreno</t>
@@ -215,1705 +215,1714 @@
     <t>21,34%</t>
   </si>
   <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>Se quemaría siempre y no se pondría moreno nunca</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la opinión que tienen si tomasen el sol sin ninguna protección en 2012 (Tasa respuesta: 98,05%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
     <t>18,92%</t>
   </si>
   <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>Se quemaría siempre y no se pondría moreno nunca</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>Población según la opinión que tienen si tomasen el sol sin ninguna protección en 2016 (Tasa respuesta: 99,01%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>8,3%</t>
   </si>
   <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la opinión que tienen si tomasen el sol sin ninguna protección en 2012 (Tasa respuesta: 98,05%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
   </si>
   <si>
     <t>16,49%</t>
   </si>
   <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
   </si>
   <si>
     <t>23,9%</t>
   </si>
   <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
   </si>
   <si>
     <t>24,07%</t>
   </si>
   <si>
-    <t>Población según la opinión que tienen si tomasen el sol sin ninguna protección en 2015 (Tasa respuesta: 99,01%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
   </si>
   <si>
     <t>19,79%</t>
   </si>
   <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
     <t>18,9%</t>
   </si>
   <si>
-    <t>20,82%</t>
+    <t>20,77%</t>
   </si>
   <si>
     <t>Población según la opinión que tienen si tomasen el sol sin ninguna protección en 2023 (Tasa respuesta: 100,0%)</t>
@@ -2376,7 +2385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804D23AD-0C59-4AE3-BE91-51CA0B104B55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11DB9D1-DDD6-44BE-9182-3EDB42E430BA}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2701,7 +2710,7 @@
         <v>309</v>
       </c>
       <c r="D8" s="7">
-        <v>305257</v>
+        <v>305258</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>47</v>
@@ -2854,7 +2863,7 @@
         <v>995</v>
       </c>
       <c r="D11" s="7">
-        <v>990453</v>
+        <v>990454</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>76</v>
@@ -2964,10 +2973,10 @@
         <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2976,13 +2985,13 @@
         <v>17049</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -2991,13 +3000,13 @@
         <v>61898</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3021,13 @@
         <v>147417</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>86</v>
@@ -3027,13 +3036,13 @@
         <v>89326</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>230</v>
@@ -3042,13 +3051,13 @@
         <v>236743</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3072,13 @@
         <v>280495</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H15" s="7">
         <v>130</v>
@@ -3078,13 +3087,13 @@
         <v>138202</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M15" s="7">
         <v>404</v>
@@ -3093,13 +3102,13 @@
         <v>418697</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3123,13 @@
         <v>595802</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>567</v>
@@ -3129,13 +3138,13 @@
         <v>571357</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>1150</v>
@@ -3144,13 +3153,13 @@
         <v>1167158</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3174,13 @@
         <v>371004</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>449</v>
@@ -3180,13 +3189,13 @@
         <v>457465</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>809</v>
@@ -3195,13 +3204,13 @@
         <v>828469</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,13 +3225,13 @@
         <v>212657</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>286</v>
@@ -3231,13 +3240,13 @@
         <v>294401</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>488</v>
@@ -3246,13 +3255,13 @@
         <v>507058</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,7 +3317,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3326,37 +3335,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,14 +3380,14 @@
         <v>2726</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
@@ -3392,7 +3401,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -3401,13 +3410,13 @@
         <v>2726</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3431,13 @@
         <v>25941</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3437,13 +3446,13 @@
         <v>5104</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -3452,13 +3461,13 @@
         <v>31045</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3482,13 @@
         <v>51943</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -3488,13 +3497,13 @@
         <v>30981</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M23" s="7">
         <v>76</v>
@@ -3503,13 +3512,13 @@
         <v>82925</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,13 +3533,13 @@
         <v>220232</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>164</v>
@@ -3539,13 +3548,13 @@
         <v>170002</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>375</v>
@@ -3554,13 +3563,13 @@
         <v>390235</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,13 +3584,13 @@
         <v>127477</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>139</v>
@@ -3590,13 +3599,13 @@
         <v>147095</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>264</v>
@@ -3605,13 +3614,13 @@
         <v>274571</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3635,13 @@
         <v>107748</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>109</v>
@@ -3641,13 +3650,13 @@
         <v>115060</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>208</v>
@@ -3656,13 +3665,13 @@
         <v>222808</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,7 +3775,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3790,13 @@
         <v>91665</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
@@ -3796,13 +3805,13 @@
         <v>34975</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="M29" s="7">
         <v>118</v>
@@ -3811,13 +3820,13 @@
         <v>126641</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3841,13 @@
         <v>250465</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H30" s="7">
         <v>127</v>
@@ -3847,13 +3856,13 @@
         <v>132347</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M30" s="7">
         <v>371</v>
@@ -3862,13 +3871,13 @@
         <v>382812</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3892,13 @@
         <v>486703</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H31" s="7">
         <v>214</v>
@@ -3898,13 +3907,13 @@
         <v>226513</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M31" s="7">
         <v>688</v>
@@ -3913,13 +3922,13 @@
         <v>713216</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3943,13 @@
         <v>1121291</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H32" s="7">
         <v>1126</v>
@@ -3949,13 +3958,13 @@
         <v>1135650</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>2229</v>
@@ -3964,13 +3973,13 @@
         <v>2256941</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3994,13 @@
         <v>709838</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H33" s="7">
         <v>976</v>
@@ -4000,13 +4009,13 @@
         <v>998043</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M33" s="7">
         <v>1677</v>
@@ -4015,13 +4024,13 @@
         <v>1707881</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4045,13 @@
         <v>518784</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>758</v>
@@ -4051,13 +4060,13 @@
         <v>785640</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M34" s="7">
         <v>1263</v>
@@ -4066,13 +4075,13 @@
         <v>1304424</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,7 +4137,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -4147,7 +4156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDC7484-E2B4-49EA-90AC-28DF7F9E5FFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB0A00E-829C-4135-9F00-ECF33640188F}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4164,7 +4173,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4277,7 +4286,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4292,7 +4301,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4322,13 +4331,13 @@
         <v>69562</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>40</v>
@@ -4337,13 +4346,13 @@
         <v>41409</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>105</v>
@@ -4352,13 +4361,13 @@
         <v>110971</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4382,13 @@
         <v>150653</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H6" s="7">
         <v>102</v>
@@ -4388,13 +4397,13 @@
         <v>107102</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M6" s="7">
         <v>242</v>
@@ -4403,13 +4412,13 @@
         <v>257756</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4433,13 @@
         <v>155673</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H7" s="7">
         <v>114</v>
@@ -4439,13 +4448,13 @@
         <v>121584</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7">
         <v>261</v>
@@ -4454,13 +4463,13 @@
         <v>277257</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>267</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4484,13 @@
         <v>190129</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H8" s="7">
         <v>251</v>
@@ -4490,13 +4499,13 @@
         <v>271699</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>426</v>
@@ -4505,13 +4514,13 @@
         <v>461827</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4535,13 @@
         <v>179100</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H9" s="7">
         <v>343</v>
@@ -4541,13 +4550,13 @@
         <v>361536</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M9" s="7">
         <v>514</v>
@@ -4556,13 +4565,13 @@
         <v>540636</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4586,13 @@
         <v>205935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>281</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H10" s="7">
         <v>338</v>
@@ -4592,13 +4601,13 @@
         <v>371092</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M10" s="7">
         <v>527</v>
@@ -4607,13 +4616,13 @@
         <v>577027</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,7 +4696,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4732,13 +4741,13 @@
         <v>91067</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -4747,13 +4756,13 @@
         <v>56373</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>139</v>
@@ -4762,13 +4771,13 @@
         <v>147440</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4792,13 @@
         <v>229326</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
@@ -4798,13 +4807,13 @@
         <v>145370</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>351</v>
@@ -4813,13 +4822,13 @@
         <v>374696</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4843,13 @@
         <v>313798</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>133</v>
+        <v>305</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H15" s="7">
         <v>174</v>
@@ -4849,13 +4858,13 @@
         <v>192749</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>314</v>
+        <v>148</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M15" s="7">
         <v>464</v>
@@ -4864,13 +4873,13 @@
         <v>506547</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4894,13 @@
         <v>567030</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7">
         <v>412</v>
@@ -4900,13 +4909,13 @@
         <v>435165</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>121</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>955</v>
@@ -4915,13 +4924,13 @@
         <v>1002195</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,13 +4945,13 @@
         <v>395108</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H17" s="7">
         <v>429</v>
@@ -4951,13 +4960,13 @@
         <v>461911</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>802</v>
@@ -4966,13 +4975,13 @@
         <v>857019</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +4996,13 @@
         <v>346918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H18" s="7">
         <v>408</v>
@@ -5002,13 +5011,13 @@
         <v>442567</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M18" s="7">
         <v>739</v>
@@ -5017,13 +5026,13 @@
         <v>789485</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,7 +5088,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5097,7 +5106,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5112,7 +5121,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5127,7 +5136,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5151,13 @@
         <v>12652</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -5157,13 +5166,13 @@
         <v>7213</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -5172,13 +5181,13 @@
         <v>19865</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>18</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5202,13 @@
         <v>30886</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -5208,13 +5217,13 @@
         <v>30590</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>358</v>
+        <v>243</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -5223,13 +5232,13 @@
         <v>61476</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>248</v>
+        <v>354</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5253,13 @@
         <v>64560</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H23" s="7">
         <v>53</v>
@@ -5259,13 +5268,13 @@
         <v>61877</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M23" s="7">
         <v>114</v>
@@ -5274,13 +5283,13 @@
         <v>126437</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>369</v>
+        <v>261</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5304,13 @@
         <v>162786</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H24" s="7">
         <v>110</v>
@@ -5310,13 +5319,13 @@
         <v>117969</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="M24" s="7">
         <v>259</v>
@@ -5325,13 +5334,13 @@
         <v>280755</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,13 +5355,13 @@
         <v>115893</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="H25" s="7">
         <v>105</v>
@@ -5361,13 +5370,13 @@
         <v>117754</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M25" s="7">
         <v>210</v>
@@ -5376,13 +5385,13 @@
         <v>233647</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,13 +5406,13 @@
         <v>90278</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>58</v>
+        <v>380</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H26" s="7">
         <v>110</v>
@@ -5412,13 +5421,13 @@
         <v>121287</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M26" s="7">
         <v>190</v>
@@ -5427,13 +5436,13 @@
         <v>211565</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>394</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,7 +5546,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5561,13 @@
         <v>173281</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>208</v>
+        <v>35</v>
       </c>
       <c r="H29" s="7">
         <v>102</v>
@@ -5567,13 +5576,13 @@
         <v>104994</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M29" s="7">
         <v>263</v>
@@ -5582,13 +5591,13 @@
         <v>278276</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,28 +5612,28 @@
         <v>410865</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="H30" s="7">
         <v>263</v>
       </c>
       <c r="I30" s="7">
-        <v>283063</v>
+        <v>283062</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="M30" s="7">
         <v>645</v>
@@ -5633,13 +5642,13 @@
         <v>693928</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5663,13 @@
         <v>534031</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="H31" s="7">
         <v>341</v>
@@ -5669,13 +5678,13 @@
         <v>376210</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>415</v>
+        <v>153</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="M31" s="7">
         <v>839</v>
@@ -5684,13 +5693,13 @@
         <v>910241</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>418</v>
+        <v>262</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5714,13 @@
         <v>919945</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="H32" s="7">
         <v>773</v>
@@ -5720,13 +5729,13 @@
         <v>824832</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>423</v>
+        <v>268</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="M32" s="7">
         <v>1640</v>
@@ -5735,13 +5744,13 @@
         <v>1744777</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5765,13 @@
         <v>690101</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="H33" s="7">
         <v>877</v>
@@ -5771,13 +5780,13 @@
         <v>941201</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>181</v>
+        <v>423</v>
       </c>
       <c r="M33" s="7">
         <v>1526</v>
@@ -5786,13 +5795,13 @@
         <v>1631302</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5816,13 @@
         <v>643131</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>68</v>
+        <v>427</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="H34" s="7">
         <v>856</v>
@@ -5822,13 +5831,13 @@
         <v>934946</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="M34" s="7">
         <v>1456</v>
@@ -5837,13 +5846,13 @@
         <v>1578077</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,7 +5879,7 @@
         <v>3212</v>
       </c>
       <c r="I35" s="7">
-        <v>3465246</v>
+        <v>3465245</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>76</v>
@@ -5899,7 +5908,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -5918,7 +5927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FCCC4C-CFDF-4DA3-80A1-7B7C4C7E808B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E3B3D7-E44C-4B97-B859-FD2EDA35F293}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5935,7 +5944,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6048,7 +6057,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6063,7 +6072,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6093,13 +6102,13 @@
         <v>29218</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>447</v>
+        <v>340</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -6108,13 +6117,13 @@
         <v>25684</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -6123,13 +6132,13 @@
         <v>54901</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>144</v>
+        <v>442</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6153,13 @@
         <v>82294</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>362</v>
+        <v>447</v>
       </c>
       <c r="H6" s="7">
         <v>47</v>
@@ -6159,13 +6168,13 @@
         <v>49467</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="M6" s="7">
         <v>130</v>
@@ -6174,13 +6183,13 @@
         <v>131760</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6204,13 @@
         <v>156337</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>272</v>
+        <v>454</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="H7" s="7">
         <v>95</v>
@@ -6210,13 +6219,13 @@
         <v>104239</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>464</v>
+        <v>101</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="M7" s="7">
         <v>256</v>
@@ -6225,13 +6234,13 @@
         <v>260577</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,13 +6255,13 @@
         <v>197899</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H8" s="7">
         <v>245</v>
@@ -6261,13 +6270,13 @@
         <v>268928</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="M8" s="7">
         <v>443</v>
@@ -6276,13 +6285,13 @@
         <v>466827</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,13 +6306,13 @@
         <v>141810</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="H9" s="7">
         <v>246</v>
@@ -6312,13 +6321,13 @@
         <v>277875</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>482</v>
+        <v>422</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="M9" s="7">
         <v>390</v>
@@ -6327,13 +6336,13 @@
         <v>419685</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,13 +6357,13 @@
         <v>130213</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>487</v>
+        <v>228</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="H10" s="7">
         <v>221</v>
@@ -6363,13 +6372,13 @@
         <v>252024</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="M10" s="7">
         <v>352</v>
@@ -6378,13 +6387,13 @@
         <v>382238</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>483</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,7 +6467,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6473,7 +6482,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6488,7 +6497,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,13 +6512,13 @@
         <v>110455</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>487</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -6518,13 +6527,13 @@
         <v>38896</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>491</v>
       </c>
       <c r="M13" s="7">
         <v>139</v>
@@ -6533,13 +6542,13 @@
         <v>149351</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>492</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6563,13 @@
         <v>195821</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>155</v>
+        <v>495</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H14" s="7">
         <v>99</v>
@@ -6569,13 +6578,13 @@
         <v>104834</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M14" s="7">
         <v>279</v>
@@ -6584,13 +6593,13 @@
         <v>300655</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>504</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>360</v>
+        <v>499</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6614,13 @@
         <v>375246</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>342</v>
+        <v>503</v>
       </c>
       <c r="H15" s="7">
         <v>194</v>
@@ -6620,13 +6629,13 @@
         <v>201039</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M15" s="7">
         <v>549</v>
@@ -6635,13 +6644,13 @@
         <v>576285</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,13 +6665,13 @@
         <v>653953</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H16" s="7">
         <v>645</v>
@@ -6671,13 +6680,13 @@
         <v>668207</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="M16" s="7">
         <v>1269</v>
@@ -6686,13 +6695,13 @@
         <v>1322161</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,13 +6716,13 @@
         <v>414762</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="H17" s="7">
         <v>517</v>
@@ -6722,13 +6731,13 @@
         <v>535832</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>526</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>527</v>
+        <v>468</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="M17" s="7">
         <v>913</v>
@@ -6737,13 +6746,13 @@
         <v>950594</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>523</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6758,13 +6767,13 @@
         <v>302846</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>488</v>
+        <v>526</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H18" s="7">
         <v>406</v>
@@ -6773,13 +6782,13 @@
         <v>430788</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>534</v>
+        <v>219</v>
       </c>
       <c r="M18" s="7">
         <v>683</v>
@@ -6788,13 +6797,13 @@
         <v>733634</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>468</v>
+        <v>532</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,7 +6859,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6868,7 +6877,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6883,7 +6892,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6913,13 +6922,13 @@
         <v>21895</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>452</v>
+        <v>536</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -6928,13 +6937,13 @@
         <v>13066</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>540</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>353</v>
+        <v>538</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>541</v>
+        <v>294</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -6943,13 +6952,13 @@
         <v>34961</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>442</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>539</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>153</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6964,10 +6973,10 @@
         <v>39734</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>543</v>
@@ -7018,7 +7027,7 @@
         <v>550</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>501</v>
+        <v>206</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>551</v>
@@ -7048,10 +7057,10 @@
         <v>555</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>107</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,13 +7075,13 @@
         <v>176401</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H24" s="7">
         <v>151</v>
@@ -7081,10 +7090,10 @@
         <v>158057</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>560</v>
+        <v>314</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>561</v>
@@ -7117,13 +7126,13 @@
         <v>130187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>565</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H25" s="7">
         <v>143</v>
@@ -7132,13 +7141,13 @@
         <v>145784</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M25" s="7">
         <v>263</v>
@@ -7147,13 +7156,13 @@
         <v>275970</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7168,10 +7177,10 @@
         <v>100255</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>573</v>
+        <v>311</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>574</v>
@@ -7204,7 +7213,7 @@
         <v>579</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>119</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7308,7 +7317,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7323,13 +7332,13 @@
         <v>161568</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H29" s="7">
         <v>74</v>
@@ -7338,13 +7347,13 @@
         <v>77646</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M29" s="7">
         <v>221</v>
@@ -7353,13 +7362,13 @@
         <v>239213</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>299</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7374,13 +7383,13 @@
         <v>317849</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>587</v>
+        <v>546</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H30" s="7">
         <v>180</v>
@@ -7389,13 +7398,13 @@
         <v>191835</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M30" s="7">
         <v>478</v>
@@ -7404,13 +7413,13 @@
         <v>509684</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7425,13 +7434,13 @@
         <v>607880</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H31" s="7">
         <v>344</v>
@@ -7440,7 +7449,7 @@
         <v>360592</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>599</v>
+        <v>296</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>600</v>
@@ -7479,10 +7488,10 @@
         <v>605</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>528</v>
+        <v>606</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H32" s="7">
         <v>1041</v>
@@ -7491,13 +7500,13 @@
         <v>1095192</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M32" s="7">
         <v>2029</v>
@@ -7506,13 +7515,13 @@
         <v>2123445</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7527,25 +7536,25 @@
         <v>686759</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>615</v>
+        <v>524</v>
       </c>
       <c r="H33" s="7">
         <v>906</v>
       </c>
       <c r="I33" s="7">
-        <v>959491</v>
+        <v>959490</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>616</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>290</v>
+        <v>367</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>617</v>
@@ -7557,13 +7566,13 @@
         <v>1646249</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>443</v>
+        <v>618</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>435</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,13 +7587,13 @@
         <v>533314</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H34" s="7">
         <v>756</v>
@@ -7593,13 +7602,13 @@
         <v>820373</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>430</v>
+        <v>384</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>334</v>
+        <v>525</v>
       </c>
       <c r="M34" s="7">
         <v>1254</v>
@@ -7608,13 +7617,13 @@
         <v>1353687</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>533</v>
+        <v>625</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7641,7 +7650,7 @@
         <v>3301</v>
       </c>
       <c r="I35" s="7">
-        <v>3505129</v>
+        <v>3505128</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>76</v>
@@ -7670,7 +7679,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -7689,7 +7698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3085889E-007B-4297-B898-75160604D4C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1191D2-D361-4AD9-A551-3CA352961A24}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7706,7 +7715,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7813,10 +7822,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>76</v>
@@ -7828,10 +7837,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>76</v>
@@ -7843,10 +7852,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>76</v>
@@ -7870,7 +7879,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7921,7 +7930,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7972,7 +7981,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8023,7 +8032,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8074,7 +8083,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8125,7 +8134,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8223,10 +8232,10 @@
         <v>2162022</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>76</v>
@@ -8238,10 +8247,10 @@
         <v>2249521</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>76</v>
@@ -8253,10 +8262,10 @@
         <v>4411543</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>76</v>
@@ -8280,7 +8289,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8295,7 +8304,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -8310,7 +8319,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8331,7 +8340,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8346,7 +8355,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8361,7 +8370,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8382,7 +8391,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -8397,7 +8406,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -8412,7 +8421,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8433,7 +8442,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8448,7 +8457,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8463,7 +8472,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8484,7 +8493,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8499,7 +8508,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8514,7 +8523,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8535,7 +8544,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8550,7 +8559,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8565,7 +8574,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,7 +8630,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8633,10 +8642,10 @@
         <v>673039</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>76</v>
@@ -8648,10 +8657,10 @@
         <v>713886</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>76</v>
@@ -8663,10 +8672,10 @@
         <v>1386926</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>76</v>
@@ -8690,7 +8699,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8720,7 +8729,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8741,7 +8750,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8771,7 +8780,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8792,7 +8801,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -8822,7 +8831,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8843,7 +8852,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8873,7 +8882,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8894,7 +8903,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8924,7 +8933,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8945,7 +8954,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8975,7 +8984,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9043,10 +9052,10 @@
         <v>3376694</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>76</v>
@@ -9058,10 +9067,10 @@
         <v>3799360</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>76</v>
@@ -9073,10 +9082,10 @@
         <v>7176054</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>76</v>
@@ -9115,7 +9124,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -9130,7 +9139,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9166,7 +9175,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -9181,7 +9190,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9217,7 +9226,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -9232,7 +9241,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9268,7 +9277,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9283,7 +9292,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9319,7 +9328,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9334,7 +9343,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9370,7 +9379,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -9385,7 +9394,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9441,7 +9450,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P46-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P46-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB41692-285D-4CFC-9CB7-AE05B35ABEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF0E4620-AB09-4328-974C-3DE22CB137B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{32551C57-7E77-4585-A91A-50A69572BEF3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{648337C8-382C-477B-9AA7-60DBE7C925E7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -2249,7 +2249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB07593B-5321-4978-9388-654B5F8EF9B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBFCB28-373B-40FB-BA1A-0F90C08E079E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2523,7 +2523,7 @@
         <v>309</v>
       </c>
       <c r="D7" s="7">
-        <v>305258</v>
+        <v>305257</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2676,7 +2676,7 @@
         <v>995</v>
       </c>
       <c r="D10" s="7">
-        <v>990454</v>
+        <v>990453</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -3220,7 +3220,7 @@
         <v>76</v>
       </c>
       <c r="N20" s="7">
-        <v>82925</v>
+        <v>82924</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>145</v>
@@ -3271,7 +3271,7 @@
         <v>375</v>
       </c>
       <c r="N21" s="7">
-        <v>390235</v>
+        <v>390234</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>154</v>
@@ -3424,7 +3424,7 @@
         <v>956</v>
       </c>
       <c r="N24" s="7">
-        <v>1004310</v>
+        <v>1004309</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>70</v>
@@ -3816,7 +3816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49517BB-5ECC-43A0-95B6-60416C082869}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF4B692-2B93-4C00-9853-9722BB1C6165}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4120,7 +4120,7 @@
         <v>426</v>
       </c>
       <c r="N7" s="7">
-        <v>461827</v>
+        <v>461828</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>262</v>
@@ -4273,7 +4273,7 @@
         <v>2075</v>
       </c>
       <c r="N10" s="7">
-        <v>2225474</v>
+        <v>2225475</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>70</v>
@@ -5080,7 +5080,7 @@
         <v>263</v>
       </c>
       <c r="I26" s="7">
-        <v>283063</v>
+        <v>283062</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>38</v>
@@ -5335,7 +5335,7 @@
         <v>3212</v>
       </c>
       <c r="I31" s="7">
-        <v>3465246</v>
+        <v>3465245</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>70</v>
@@ -5350,7 +5350,7 @@
         <v>6369</v>
       </c>
       <c r="N31" s="7">
-        <v>6836602</v>
+        <v>6836601</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>70</v>
@@ -5383,7 +5383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2151BFC1-0B53-4C91-AF79-FFEE664AAA4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6052845A-8CB5-42C0-902C-458973F8D2EB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6390,7 +6390,7 @@
         <v>151</v>
       </c>
       <c r="I21" s="7">
-        <v>158057</v>
+        <v>158056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>533</v>
@@ -6441,7 +6441,7 @@
         <v>143</v>
       </c>
       <c r="I22" s="7">
-        <v>145784</v>
+        <v>145783</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>315</v>
@@ -6543,7 +6543,7 @@
         <v>524</v>
       </c>
       <c r="I24" s="7">
-        <v>547316</v>
+        <v>547315</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>70</v>
